--- a/DataConventions.xlsx
+++ b/DataConventions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>广告status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,7 +74,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
+    <t>付费用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,6 +602,14 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>

--- a/DataConventions.xlsx
+++ b/DataConventions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="5100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>广告status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,22 @@
   </si>
   <si>
     <t>免费用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录返回值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不存在</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -221,6 +237,18 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,15 +554,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
@@ -551,7 +580,7 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -560,7 +589,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -569,7 +598,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -578,7 +607,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -587,7 +616,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -595,10 +624,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>0</v>
       </c>
       <c r="C7" t="s">
@@ -606,16 +635,48 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
